--- a/processed_data/optima_HABITAT.xlsx
+++ b/processed_data/optima_HABITAT.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D132"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2475,11 +2475,27 @@
         <v>44135</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>44158</v>
+        <v>44165</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
           <t>100% A</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="C133" s="2" t="n">
+        <v>44178</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>100% B</t>
         </is>
       </c>
     </row>

--- a/processed_data/optima_HABITAT.xlsx
+++ b/processed_data/optima_HABITAT.xlsx
@@ -2272,7 +2272,7 @@
         <v>44196</v>
       </c>
       <c r="C134" s="2">
-        <v>44200</v>
+        <v>44205</v>
       </c>
       <c r="D134" t="s">
         <v>4</v>
